--- a/Components.xlsx
+++ b/Components.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F0ED31-8638-4B3C-BD24-ACD7C3714927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2273ADD5-44D6-460F-ACC1-D246A6F00CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="11160" windowWidth="15360" windowHeight="16575" xr2:uid="{5011CA96-A798-49EE-8CB8-0112E511F9E7}"/>
+    <workbookView xWindow="1125" yWindow="675" windowWidth="19605" windowHeight="23595" xr2:uid="{5011CA96-A798-49EE-8CB8-0112E511F9E7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Components" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Type:</t>
   </si>
@@ -33,14 +33,197 @@
     <t>Part Name:</t>
   </si>
   <si>
-    <t>Lead Spacing:</t>
+    <t>Part #:</t>
+  </si>
+  <si>
+    <t>Soldering Tips</t>
+  </si>
+  <si>
+    <t>1124-0033-P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1124-0034-P1 </t>
+  </si>
+  <si>
+    <t>PACE ST-30 and TD-100 [Chisel, .12" (3.05mm) W]</t>
+  </si>
+  <si>
+    <t>PACE ST-30 and TD-100 [Angled Mini-Wave, .12" (3.05mm) Dia]</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>SFR25*</t>
+  </si>
+  <si>
+    <t>CD14ZT0R00</t>
+  </si>
+  <si>
+    <t>Vishay 1/4W 1% Precision Resistor</t>
+  </si>
+  <si>
+    <t>0-Ohm Carbon Film Jumper</t>
+  </si>
+  <si>
+    <t>MKP1837410011</t>
+  </si>
+  <si>
+    <t>MKP1837347161G</t>
+  </si>
+  <si>
+    <t>BFC241641004</t>
+  </si>
+  <si>
+    <t>Audio Film Capacitor</t>
+  </si>
+  <si>
+    <t>C320C104K5R5TA</t>
+  </si>
+  <si>
+    <t>Ceramic Capacitor</t>
+  </si>
+  <si>
+    <t>TR5 Socket Fuse</t>
+  </si>
+  <si>
+    <t>TR5 Fuse Holder</t>
+  </si>
+  <si>
+    <t>56000001009</t>
+  </si>
+  <si>
+    <t>Littlefuse Fuse Holder 6.3A</t>
+  </si>
+  <si>
+    <t>MNI-HT-4-220 / RPC1554-ND</t>
+  </si>
+  <si>
+    <t>TO-220 Insulating Washer</t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
+    <t>4171G</t>
+  </si>
+  <si>
+    <t>4180G</t>
+  </si>
+  <si>
+    <t>Aluminum Oxide Ceramic Insulator TO-220</t>
+  </si>
+  <si>
+    <t>Aluminum Oxide Ceramic Insulator TO-247</t>
+  </si>
+  <si>
+    <t>Transistor Insulator</t>
+  </si>
+  <si>
+    <t>110-41-308-41-001000</t>
+  </si>
+  <si>
+    <t>ICM-328-1-GT-HT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIP IC Socket </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay 100nF 100volt 1% (5mm Lead Spacing) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay 47nF 100volt 1% (5mm Lead Spacing) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vishay 100nF 63volt 2.5% (5mm Lead Spacing) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEMET 0.1uF 50VDC X7R 10% (2.54mm Lead Spacing) </t>
+  </si>
+  <si>
+    <t>28-Pin DIP (7.6mm Row Spacing) Gold Plated Socket</t>
+  </si>
+  <si>
+    <t>Littlefuse 250v 500mA 370 Slow-Blow Fuse</t>
+  </si>
+  <si>
+    <t>8-Pin DIP (7.6mm Row Spacing) Gold Plated Socket</t>
+  </si>
+  <si>
+    <t>KK 254 Crimper</t>
+  </si>
+  <si>
+    <t>SN-01BM</t>
+  </si>
+  <si>
+    <t>30-22 AWG Crimp Pin</t>
+  </si>
+  <si>
+    <t>IWISS KK Pin Crimper</t>
+  </si>
+  <si>
+    <t>08-50-0114</t>
+  </si>
+  <si>
+    <t>22-23-2021 / 22-23-2027</t>
+  </si>
+  <si>
+    <t>22-01-3027</t>
+  </si>
+  <si>
+    <t>22-23-2031 / 22-23-2037</t>
+  </si>
+  <si>
+    <t>22-01-3037</t>
+  </si>
+  <si>
+    <t>22-23-2061 / 22-23-2067</t>
+  </si>
+  <si>
+    <t>22-01-3067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Pin Connector Housing </t>
+  </si>
+  <si>
+    <t>6-Pin PCB Header</t>
+  </si>
+  <si>
+    <t>3-Pin PCB Header</t>
+  </si>
+  <si>
+    <t>2-Pin PCB Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Pin Connector Housing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Pin Connector Housing </t>
+  </si>
+  <si>
+    <t>Molex KK 254 Connector</t>
+  </si>
+  <si>
+    <t>Q2-Z-3/16-01-QB6IN-24</t>
+  </si>
+  <si>
+    <t>Heat Shrink Tubing &amp; Sleeves 2:1 Thin Wall 3/8, 48"</t>
+  </si>
+  <si>
+    <t>Heat Shrink Tubing</t>
+  </si>
+  <si>
+    <t>FP301-3/8-48"</t>
+  </si>
+  <si>
+    <t>Heat Shrink Tubing &amp; Sleeves 3/16" 6" 24PC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,16 +231,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +267,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,28 +608,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F7DFCA-5D72-4D37-8D0C-CB9C52D06DAD}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4">
+        <v>37005000410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>37012000410</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Components.xlsx
+++ b/Components.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2273ADD5-44D6-460F-ACC1-D246A6F00CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8110A616-FC73-4381-835A-C03F2DAF4A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="675" windowWidth="19605" windowHeight="23595" xr2:uid="{5011CA96-A798-49EE-8CB8-0112E511F9E7}"/>
+    <workbookView xWindow="315" yWindow="11055" windowWidth="18045" windowHeight="16215" xr2:uid="{5011CA96-A798-49EE-8CB8-0112E511F9E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Components" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>Type:</t>
   </si>
@@ -217,13 +217,31 @@
   </si>
   <si>
     <t>Heat Shrink Tubing &amp; Sleeves 3/16" 6" 24PC</t>
+  </si>
+  <si>
+    <t>http://www.par-metal.com/index.php</t>
+  </si>
+  <si>
+    <t>Enclosures</t>
+  </si>
+  <si>
+    <t>20-*** Line</t>
+  </si>
+  <si>
+    <t>NAUSB-W-B</t>
+  </si>
+  <si>
+    <t>Neutrik Panel Mount Reversible USB A/B Adapter</t>
+  </si>
+  <si>
+    <t>Panel Mount Connector</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +258,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111820"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,10 +316,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -294,8 +328,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F7DFCA-5D72-4D37-8D0C-CB9C52D06DAD}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,11 +959,31 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{F6553D58-4E8B-4642-9271-8B5D4E1EB9EB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>